--- a/Scraped Data/Octaware Technologies Ltd_Data.xlsx
+++ b/Scraped Data/Octaware Technologies Ltd_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>Mar 2016</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Octaware Technologies Ltd</t>
   </si>
   <si>
+    <t>Mar 2017</t>
+  </si>
+  <si>
     <t>Shareholder</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>Mar 2017</t>
-  </si>
-  <si>
     <t>Mar 2018</t>
   </si>
   <si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>PAT</t>
-  </si>
-  <si>
-    <t>1.76</t>
-  </si>
-  <si>
-    <t>1.55</t>
   </si>
   <si>
     <t>2.20</t>
@@ -466,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -488,16 +482,13 @@
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
     <col min="28" max="28" width="15.7109375" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" customWidth="1"/>
-    <col min="32" max="32" width="15.7109375" customWidth="1"/>
     <col min="34" max="34" width="15.7109375" customWidth="1"/>
     <col min="37" max="37" width="10.7109375" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -505,7 +496,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -513,7 +504,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -521,7 +512,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -529,7 +520,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -537,31 +528,23 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-      <c r="AL1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -573,13 +556,13 @@
         <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>15</v>
@@ -591,13 +574,13 @@
         <v>18</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>15</v>
@@ -609,13 +592,13 @@
         <v>18</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>15</v>
@@ -627,13 +610,13 @@
         <v>18</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>15</v>
@@ -645,13 +628,7 @@
         <v>18</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>15</v>
@@ -663,95 +640,74 @@
         <v>18</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:37">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AH3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>7.31</v>
+        <v>13.49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>7.31</v>
+        <v>8.01</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -760,13 +716,13 @@
         <v>20</v>
       </c>
       <c r="H4" s="2">
-        <v>13.49</v>
+        <v>15.93</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="2">
-        <v>8.01</v>
+        <v>11.28</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>21</v>
@@ -775,13 +731,13 @@
         <v>22</v>
       </c>
       <c r="N4" s="2">
-        <v>15.93</v>
+        <v>16.84</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P4" s="2">
-        <v>11.28</v>
+        <v>10.93</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>23</v>
@@ -790,13 +746,13 @@
         <v>24</v>
       </c>
       <c r="T4" s="2">
-        <v>16.84</v>
+        <v>15.77</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4" s="2">
-        <v>10.93</v>
+        <v>12.94</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>25</v>
@@ -805,13 +761,13 @@
         <v>26</v>
       </c>
       <c r="Z4" s="2">
-        <v>15.77</v>
+        <v>15.26</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="2">
-        <v>12.94</v>
+        <v>16.22</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>27</v>
@@ -819,47 +775,30 @@
       <c r="AD4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="2">
-        <v>15.26</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="AH4" s="2">
-        <v>16.22</v>
+        <v>17.21</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>17.21</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
-    <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
